--- a/Abx_comp_KPCB.xlsx
+++ b/Abx_comp_KPCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6B155-F1F1-194F-9D17-8701A1FA922E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF783880-CBF5-4C49-B500-D551FA449523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{9BBE33A4-B5BF-444D-800D-6CAF4913863D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="11">
   <si>
     <t>Gentamicin</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Conc</t>
+  </si>
+  <si>
+    <t>Isolate</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:I275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +472,9 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
